--- a/data/LIBOR_clean.xlsx
+++ b/data/LIBOR_clean.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ106"/>
+  <dimension ref="A1:DQ117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,364 +442,364 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BX1" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BY1" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DG1" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DH1" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>357</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -39125,6 +39125,4021 @@
       </c>
       <c r="DQ106" t="n">
         <v>1.34050909966668</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.20868</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.208684550844321</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.218467569823193</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.210708277945642</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.208345624908883</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.209560985396999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.218422049831597</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.228577657017954</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.236849478254287</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.245439188333022</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.254665293843881</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.265383253971493</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.277459878223353</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.291302133504205</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.305652288560005</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.322466157231906</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.340407163092403</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.359336460783441</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.379663340123794</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.400986690221641</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.423147816181803</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.446242510374635</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.46926692606798</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.492755548845791</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.516522933501967</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.540159398895705</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.562822537469119</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.5859824608136061</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.608820499755479</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0.6312960841549859</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.652910775994936</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0.674609070559532</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0.695891992616486</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.717193062178682</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.73648754332912</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.756430801772355</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.7765083171125921</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.795042467069732</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.812756398375059</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.831295237814595</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.8491139594413371</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.866255132519462</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.883200457880169</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.899643032384627</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.915478492226102</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.930798349199088</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.945141917249343</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0.959195651016874</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0.97267948409343</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0.985634525073378</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0.99769637309139</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.00970830674292</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.02128444636359</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.03245121320854</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.04288730762464</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>1.05331836035034</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.06340751655823</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.07338324781053</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>1.08233318503368</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.09151796682884</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.10071723664344</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.1091780232772</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.11748565473265</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.12554693368241</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.13336390937056</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>1.14102040311804</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.14827252901628</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>1.15536768016229</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>1.16229960792903</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>1.168990577182</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>1.17523544429669</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>1.18145655993542</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>1.18744083494778</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>1.19318950652178</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>1.19852761840472</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>1.2038161213462</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>1.20887231263282</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>1.21369718744295</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>1.21819425231255</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>1.22256425675503</v>
+      </c>
+      <c r="CD107" t="n">
+        <v>1.22683682082518</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>1.23066267456387</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>1.23420611941032</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>1.23778978763211</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>1.24110942518985</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>1.24418968197669</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>1.24714790500869</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>1.24996036709011</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>1.25263795602279</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>1.25521847410011</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>1.25762965408788</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>1.25996320650629</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>1.26222491017007</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>1.26439754540393</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>1.26644503215386</v>
+      </c>
+      <c r="CS107" t="n">
+        <v>1.26846646473513</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>1.27042339930072</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>1.27232340886521</v>
+      </c>
+      <c r="CV107" t="n">
+        <v>1.27411412818974</v>
+      </c>
+      <c r="CW107" t="n">
+        <v>1.27592306247871</v>
+      </c>
+      <c r="CX107" t="n">
+        <v>1.2776957712018</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>1.27947403450617</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>1.28108628538553</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>1.28275017165211</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>1.28441792486491</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>1.28594508035823</v>
+      </c>
+      <c r="DD107" t="n">
+        <v>1.28738361502729</v>
+      </c>
+      <c r="DE107" t="n">
+        <v>1.28885527950913</v>
+      </c>
+      <c r="DF107" t="n">
+        <v>1.29022559243759</v>
+      </c>
+      <c r="DG107" t="n">
+        <v>1.29149436063171</v>
+      </c>
+      <c r="DH107" t="n">
+        <v>1.29270055699132</v>
+      </c>
+      <c r="DI107" t="n">
+        <v>1.29382529936036</v>
+      </c>
+      <c r="DJ107" t="n">
+        <v>1.29487529303635</v>
+      </c>
+      <c r="DK107" t="n">
+        <v>1.29583351008439</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>1.29666932278802</v>
+      </c>
+      <c r="DM107" t="n">
+        <v>1.29743526478929</v>
+      </c>
+      <c r="DN107" t="n">
+        <v>1.29809779468311</v>
+      </c>
+      <c r="DO107" t="n">
+        <v>1.2986532577117</v>
+      </c>
+      <c r="DP107" t="n">
+        <v>1.2990853974161</v>
+      </c>
+      <c r="DQ107" t="n">
+        <v>1.29942002661879</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.22502</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.22501950883316</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.237681692523388</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.228635945211688</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.226456526726727</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.229134612974373</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.24153197295484</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.253601863222188</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.262516447000287</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.272406878878722</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.28338020035444</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.29603015230775</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.309909536860523</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.325501135954268</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.341016699518205</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.359233770087336</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.378397853583998</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.399297942416644</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.420958445787917</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.443803923249099</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.467376559827038</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.491743344247263</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.515867542324175</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.540337301255271</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.564975267744507</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0.58937487999989</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0.612700087168717</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0.636492202855983</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.659932527568851</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0.682994802620032</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0.705158482860095</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0.727378258122271</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0.749129954868187</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0.7710789926395319</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0.790498571217132</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0.810801749796525</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0.831045281967706</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.850361356175488</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.868141292343251</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.886778693593633</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.904217150970155</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.92122660658174</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.937314085353426</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.953088209750664</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.968425062614885</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.9835188710171749</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0.997835529336038</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1.01194628115956</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.02546694434052</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>1.03835943114267</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.05026576513027</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.06203584131995</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.07330372543668</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.08411083915025</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.09416317125785</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>1.10417301307676</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.11382786974972</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.12345758267957</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>1.1319031065418</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.14067729560606</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1.14938934207577</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.15768838473369</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.16559237348485</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1.17336774104634</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.18092489559078</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>1.18834272102171</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.19538243513527</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>1.20228183412479</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>1.20903321660522</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>1.21555910566595</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>1.22165722165392</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>1.22773829442739</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>1.23359271607878</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>1.23922013878521</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>1.24444773244816</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>1.24962761603275</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>1.25457957522077</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>1.25930333022789</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>1.26370332329363</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>1.26797486227247</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>1.27210278368086</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>1.27591383759326</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>1.27932080170845</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>1.28280129659966</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>1.28598594024591</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>1.28903410627026</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>1.29186134349494</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>1.2945761430255</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>1.29715746023517</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>1.29964237292011</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>1.30196199103797</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>1.30420521680593</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>1.30637817406762</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>1.30846491186483</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>1.31043136715754</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>1.31237326971078</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>1.31425424211667</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>1.31608207896776</v>
+      </c>
+      <c r="CV108" t="n">
+        <v>1.31780678520177</v>
+      </c>
+      <c r="CW108" t="n">
+        <v>1.31955161415231</v>
+      </c>
+      <c r="CX108" t="n">
+        <v>1.32126461262563</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>1.32300463544152</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>1.32455037269953</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>1.32616668161964</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>1.32777189573197</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>1.32929151077737</v>
+      </c>
+      <c r="DD108" t="n">
+        <v>1.33067638975538</v>
+      </c>
+      <c r="DE108" t="n">
+        <v>1.33211011807521</v>
+      </c>
+      <c r="DF108" t="n">
+        <v>1.33343084892916</v>
+      </c>
+      <c r="DG108" t="n">
+        <v>1.33469362832567</v>
+      </c>
+      <c r="DH108" t="n">
+        <v>1.33585363057454</v>
+      </c>
+      <c r="DI108" t="n">
+        <v>1.33694610209275</v>
+      </c>
+      <c r="DJ108" t="n">
+        <v>1.33796376824678</v>
+      </c>
+      <c r="DK108" t="n">
+        <v>1.33888964667052</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>1.33969388146714</v>
+      </c>
+      <c r="DM108" t="n">
+        <v>1.34042659482356</v>
+      </c>
+      <c r="DN108" t="n">
+        <v>1.34105502264912</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>1.341575239327</v>
+      </c>
+      <c r="DP108" t="n">
+        <v>1.34197194678298</v>
+      </c>
+      <c r="DQ108" t="n">
+        <v>1.34226832308476</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.20767</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.207671193825972</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.231262294361075</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.220153960259323</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.217719110896471</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.221210603056487</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.231225780666738</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.241312283090221</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.250393327329509</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.25984825302505</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.269998939191762</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.281522727085478</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.294157031677896</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.308287089135929</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.322775032346746</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.339920140171089</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.357700984413259</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.377174805069173</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.397982943544558</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.419263563215306</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.440674216653831</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.46268668315193</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.484449891098142</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.505869941109979</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.52757837362825</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.549040755113045</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.56956873172405</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.590557198906256</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.61131994004088</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.6318536420170801</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0.65167333272242</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0.67160815488911</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0.691168346291762</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0.710731156128829</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0.728450118174554</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0.746782168262186</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0.765082044649004</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0.782371752800701</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.798642643535284</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.815651110007135</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.831178527963878</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.846278160662243</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.861018246408056</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.875183136544554</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.888879312143099</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.902611832316581</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0.915707635431707</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0.928646475632078</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0.941037641502953</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0.952816694689018</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0.963658819224201</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0.974345159530593</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0.984657155490825</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0.994313590507686</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.0033809264692</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>1.01239882303977</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.02109049382205</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.02966813566376</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>1.03736210603547</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.04526939966334</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.05313262156209</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.06055743480047</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.06787864777085</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.07493497585976</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.08173055002876</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>1.08848694306569</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.09497898374646</v>
+      </c>
+      <c r="BQ109" t="n">
+        <v>1.10121131842892</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>1.10738697426099</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>1.11336381835247</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>1.11895523832357</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>1.12453688244388</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>1.1299157404518</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>1.13509061827747</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>1.13990157553097</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>1.14467190594231</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>1.1492835371452</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>1.15359013454635</v>
+      </c>
+      <c r="CB109" t="n">
+        <v>1.15764825915317</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>1.16158896473104</v>
+      </c>
+      <c r="CD109" t="n">
+        <v>1.16539771508181</v>
+      </c>
+      <c r="CE109" t="n">
+        <v>1.16887689370434</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>1.17205671610849</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>1.17529868252295</v>
+      </c>
+      <c r="CH109" t="n">
+        <v>1.17819911003217</v>
+      </c>
+      <c r="CI109" t="n">
+        <v>1.18097396069048</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>1.18362886201742</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>1.18611638478596</v>
+      </c>
+      <c r="CL109" t="n">
+        <v>1.18845064159567</v>
+      </c>
+      <c r="CM109" t="n">
+        <v>1.19071672640902</v>
+      </c>
+      <c r="CN109" t="n">
+        <v>1.19284771877853</v>
+      </c>
+      <c r="CO109" t="n">
+        <v>1.19485559486396</v>
+      </c>
+      <c r="CP109" t="n">
+        <v>1.19681382722483</v>
+      </c>
+      <c r="CQ109" t="n">
+        <v>1.1986847371555</v>
+      </c>
+      <c r="CR109" t="n">
+        <v>1.20043787056649</v>
+      </c>
+      <c r="CS109" t="n">
+        <v>1.20215838097694</v>
+      </c>
+      <c r="CT109" t="n">
+        <v>1.20383119071278</v>
+      </c>
+      <c r="CU109" t="n">
+        <v>1.20541009896136</v>
+      </c>
+      <c r="CV109" t="n">
+        <v>1.20690496151486</v>
+      </c>
+      <c r="CW109" t="n">
+        <v>1.20840496200513</v>
+      </c>
+      <c r="CX109" t="n">
+        <v>1.20986487919855</v>
+      </c>
+      <c r="CY109" t="n">
+        <v>1.21131923159225</v>
+      </c>
+      <c r="CZ109" t="n">
+        <v>1.21262878696724</v>
+      </c>
+      <c r="DA109" t="n">
+        <v>1.2139708635263</v>
+      </c>
+      <c r="DB109" t="n">
+        <v>1.21529206806243</v>
+      </c>
+      <c r="DC109" t="n">
+        <v>1.21651852722764</v>
+      </c>
+      <c r="DD109" t="n">
+        <v>1.21765146177847</v>
+      </c>
+      <c r="DE109" t="n">
+        <v>1.21881176809732</v>
+      </c>
+      <c r="DF109" t="n">
+        <v>1.21984709465275</v>
+      </c>
+      <c r="DG109" t="n">
+        <v>1.22082702419469</v>
+      </c>
+      <c r="DH109" t="n">
+        <v>1.22174575785773</v>
+      </c>
+      <c r="DI109" t="n">
+        <v>1.22257114447669</v>
+      </c>
+      <c r="DJ109" t="n">
+        <v>1.22333654429985</v>
+      </c>
+      <c r="DK109" t="n">
+        <v>1.22401951370138</v>
+      </c>
+      <c r="DL109" t="n">
+        <v>1.22459880432231</v>
+      </c>
+      <c r="DM109" t="n">
+        <v>1.22511051034881</v>
+      </c>
+      <c r="DN109" t="n">
+        <v>1.22553075679884</v>
+      </c>
+      <c r="DO109" t="n">
+        <v>1.22585670757325</v>
+      </c>
+      <c r="DP109" t="n">
+        <v>1.22607971689524</v>
+      </c>
+      <c r="DQ109" t="n">
+        <v>1.22621224262619</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.22845</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.228445924891734</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.233403824171715</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.222549640236557</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.219549245373103</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.223323983657671</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.232950770652209</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.242772356025445</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.251885830216684</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.260920448037704</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.270679675405114</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.281321314310006</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.292947593042763</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.305851036559553</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.320752506308014</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.337073109703769</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.354835623939358</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.374588426524905</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.395695274797397</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.417942661858323</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.440227283437512</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.463003044736786</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.485853155807718</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.508899901132302</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.53153506127745</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0.553681360915929</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0.576022348949266</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0.59802402769636</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.619420100818612</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0.640451494754534</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0.6614523968627219</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.68231266563244</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0.702913174799475</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0.723284557775203</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0.743887188949714</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>0.764654142149982</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0.7836255071734</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0.801374547873518</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0.819537560983909</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.836640925483172</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.852835005115115</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.8687579195883059</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.884282651801633</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.899618385878673</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.914310693179704</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>0.928871021847166</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.943225440780505</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0.957133163329714</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0.970379243550423</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0.9829326626349431</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0.995221584491449</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.00699470341504</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.01816308308637</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.02876987635454</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.03918748198915</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1.04920017110508</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.05872828581288</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.06780455040834</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>1.07674521715381</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.08563915452116</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>1.09376507648183</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.10169964935783</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.10936215950019</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.11684228827645</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.12390951190199</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>1.13081213776231</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.13747835728214</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>1.14398527644172</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>1.150198666682</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>1.15613246887545</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>1.16198736645035</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1.16763533939403</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>1.1730241010908</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>1.17816540880717</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>1.18323261039506</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>1.18811430835109</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>1.19276505991872</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>1.19724322527225</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>1.20159933153611</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>1.20592100235742</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>1.2098535694298</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>1.2135504962459</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>1.21734385356088</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>1.2209074346062</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>1.22425692072789</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>1.22751198493642</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>1.23064017354978</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>1.23367912765842</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>1.23653671979715</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>1.23931489312328</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>1.24198584802954</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>1.24458163231801</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>1.24705004562243</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>1.24942387061046</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>1.25173154628986</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>1.25395026951209</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>1.25606093857603</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>1.25806962924707</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>1.26004525454332</v>
+      </c>
+      <c r="CW110" t="n">
+        <v>1.2619455138936</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>1.26375400120581</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>1.26547499610198</v>
+      </c>
+      <c r="CZ110" t="n">
+        <v>1.26716303267777</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>1.26882784399409</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>1.27032922047522</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>1.27172371915692</v>
+      </c>
+      <c r="DD110" t="n">
+        <v>1.2731307133977</v>
+      </c>
+      <c r="DE110" t="n">
+        <v>1.27442294397256</v>
+      </c>
+      <c r="DF110" t="n">
+        <v>1.275603817993</v>
+      </c>
+      <c r="DG110" t="n">
+        <v>1.27671210689054</v>
+      </c>
+      <c r="DH110" t="n">
+        <v>1.27773230575019</v>
+      </c>
+      <c r="DI110" t="n">
+        <v>1.27867228198774</v>
+      </c>
+      <c r="DJ110" t="n">
+        <v>1.27950980221785</v>
+      </c>
+      <c r="DK110" t="n">
+        <v>1.28024619905211</v>
+      </c>
+      <c r="DL110" t="n">
+        <v>1.28090280080177</v>
+      </c>
+      <c r="DM110" t="n">
+        <v>1.28146054313138</v>
+      </c>
+      <c r="DN110" t="n">
+        <v>1.28191340306429</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>1.28226315131501</v>
+      </c>
+      <c r="DP110" t="n">
+        <v>1.28251834246537</v>
+      </c>
+      <c r="DQ110" t="n">
+        <v>1.28266864905894</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.22895</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.228952583542681</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.228102751702978</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.216283809109185</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.21343473528681</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.220468792144098</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.224030991205432</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.226493938694885</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.231033951247432</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.238462815679772</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.249224962136008</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.263194092265381</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.280168883978489</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.30013674677671</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.323206483860075</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.34727893989703</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.372600472630413</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.398849990080367</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.425882070163596</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.453606572984499</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.481951327388986</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.510811788051155</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.539926401751153</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.569355926374962</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.598243465916599</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.626427993791138</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0.654734572362606</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0.682447422519174</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.709203941522795</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.735266838080004</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0.760947252399496</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.786004730729715</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0.810219717249263</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.8336443996641379</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0.85706925525246</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>0.880474138528384</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0.902634654333702</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0.923591471302202</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0.945376342946849</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.965778685180307</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0.9854189056582</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.00425613297118</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.02239339028397</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.03995834141151</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.0570670819266</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.0737912019984</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.09023809996975</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>1.10612324357458</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.12119452779763</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>1.13541534979248</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>1.14928150170558</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.16252255941148</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.17505302719932</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.18693482585783</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.19859670332596</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>1.20980811648476</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.22049010815176</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.23068817566819</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>1.24076686535754</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.25073361849322</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.2600908123359</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.26918283535006</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.27801622835811</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.2865938264513</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.29491828813413</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>1.30299210886208</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.3108176333529</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>1.31847899811242</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>1.32581174599784</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>1.33282584416858</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>1.3397529700291</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1.34643637093926</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>1.35280902498074</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>1.35888026647052</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>1.36485007788955</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>1.370582372492</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>1.376020036033</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>1.38122789938719</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>1.38626059907315</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>1.39116257236805</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>1.39567798191277</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>1.39983222911472</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>1.40405155793549</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>1.40793545860112</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>1.4116350269177</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>1.41516268385429</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>1.41853027464675</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>1.42174910177341</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>1.42482995568993</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>1.42778314349906</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>1.43061851571531</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>1.43337488981993</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>1.43600143588683</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>1.43853731313174</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>1.44101730929344</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>1.44342123931178</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>1.44573188204749</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>1.4479585832796</v>
+      </c>
+      <c r="CV111" t="n">
+        <v>1.45018162862052</v>
+      </c>
+      <c r="CW111" t="n">
+        <v>1.45235781026346</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>1.45447073627438</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>1.45652559349453</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>1.45858510799914</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>1.46063895115792</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>1.46257159139765</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>1.46438216014098</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>1.46624622914247</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>1.46797575480831</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>1.46962548738313</v>
+      </c>
+      <c r="DG111" t="n">
+        <v>1.4711897505738</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>1.47266307379911</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>1.47405476245635</v>
+      </c>
+      <c r="DJ111" t="n">
+        <v>1.4753294304018</v>
+      </c>
+      <c r="DK111" t="n">
+        <v>1.47648559303147</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>1.4775552519036</v>
+      </c>
+      <c r="DM111" t="n">
+        <v>1.47850679412888</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>1.4793273270389</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>1.48001661573152</v>
+      </c>
+      <c r="DP111" t="n">
+        <v>1.4805914260769</v>
+      </c>
+      <c r="DQ111" t="n">
+        <v>1.48103093288981</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.22046</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.221152746988142</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.196623818266693</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.186497090701492</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.182606616450981</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.189160979744899</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.1892195261118</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.191065073152564</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.195776191811656</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.202283842453622</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.211261075971717</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.223100444987001</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.237963526855149</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.25599212155469</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.277170457245922</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.29942578795466</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.322874385469377</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.347164765338096</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.37221136392349</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.397991126829553</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.424485595388737</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.451616770049827</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.479080035983092</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.506867192557884</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.534114097732894</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0.560645119296878</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.587297290630549</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0.613470191600512</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.638882300645908</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0.663813248752994</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0.688509257339323</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0.712672986828197</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0.736032714734686</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0.758594302812329</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0.781103106918364</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0.8035281907990049</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0.824690618491008</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0.844643381361087</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.865381522058149</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.884870663549612</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.9037631248719</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.922046716945547</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.93972920565812</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.956822227461459</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.973336364371631</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.989276621936831</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.00479480323753</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>1.01969511886965</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.03380999608683</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>1.04715570026243</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.06020302019888</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.07269273834194</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.08453816001018</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.09579187584108</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.1068554598728</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>1.11750615814073</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1.12766440152377</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.13736917052653</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>1.14696371400329</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.15645161689147</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1.16535580369493</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.17400172233146</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.18239581018102</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1.19054157149517</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.19844229225927</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>1.20610105692563</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.21352076363051</v>
+      </c>
+      <c r="BQ112" t="n">
+        <v>1.22078177312949</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>1.2277288259597</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>1.23437200522184</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>1.24093124088547</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1.24725856807445</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>1.2532910361115</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>1.25903794588647</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>1.26468902248176</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>1.27011586402819</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>1.27526477570183</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>1.28019749104592</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>1.28496613340263</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>1.2896132508378</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>1.29389658540616</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>1.29784012598078</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>1.30184831394161</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>1.30554037684822</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>1.30905938321491</v>
+      </c>
+      <c r="CI112" t="n">
+        <v>1.31241673154333</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>1.31562329199507</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>1.31868943665281</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>1.32162506772516</v>
+      </c>
+      <c r="CM112" t="n">
+        <v>1.3244396438564</v>
+      </c>
+      <c r="CN112" t="n">
+        <v>1.32714220468792</v>
+      </c>
+      <c r="CO112" t="n">
+        <v>1.32976941322935</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>1.3322724991295</v>
+      </c>
+      <c r="CQ112" t="n">
+        <v>1.33468848183718</v>
+      </c>
+      <c r="CR112" t="n">
+        <v>1.33705019736196</v>
+      </c>
+      <c r="CS112" t="n">
+        <v>1.33933812417009</v>
+      </c>
+      <c r="CT112" t="n">
+        <v>1.3415356334194</v>
+      </c>
+      <c r="CU112" t="n">
+        <v>1.34365143007108</v>
+      </c>
+      <c r="CV112" t="n">
+        <v>1.34576153963458</v>
+      </c>
+      <c r="CW112" t="n">
+        <v>1.34782465904446</v>
+      </c>
+      <c r="CX112" t="n">
+        <v>1.34982509221819</v>
+      </c>
+      <c r="CY112" t="n">
+        <v>1.35176777425938</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>1.35371234357382</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>1.35564937527439</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>1.35747039772697</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>1.35917515958103</v>
+      </c>
+      <c r="DD112" t="n">
+        <v>1.36092931619201</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>1.36255624848651</v>
+      </c>
+      <c r="DF112" t="n">
+        <v>1.36410785756343</v>
+      </c>
+      <c r="DG112" t="n">
+        <v>1.36557915351904</v>
+      </c>
+      <c r="DH112" t="n">
+        <v>1.36696532728646</v>
+      </c>
+      <c r="DI112" t="n">
+        <v>1.36827547344274</v>
+      </c>
+      <c r="DJ112" t="n">
+        <v>1.36947659908474</v>
+      </c>
+      <c r="DK112" t="n">
+        <v>1.37056756986211</v>
+      </c>
+      <c r="DL112" t="n">
+        <v>1.37157891939691</v>
+      </c>
+      <c r="DM112" t="n">
+        <v>1.37248114187722</v>
+      </c>
+      <c r="DN112" t="n">
+        <v>1.37326227503974</v>
+      </c>
+      <c r="DO112" t="n">
+        <v>1.3739222831194</v>
+      </c>
+      <c r="DP112" t="n">
+        <v>1.37447762157694</v>
+      </c>
+      <c r="DQ112" t="n">
+        <v>1.37490872436912</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.23895</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.238953895744298</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.204001826968112</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.193210993688329</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.18951161124604</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.194815996626725</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.194454358548282</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.19593275676994</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.204811382881646</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.213639874228007</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.223009255550268</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.234680151798743</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.249773856878069</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.26891917661583</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.291923565227477</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.316275062851009</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.341905151176705</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.368313532414277</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.395415059273047</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.423214551822688</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.451715869286578</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.480850905429284</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.510291881983957</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.540024748592546</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.569120683907143</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0.597393582890556</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0.6257475135231489</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0.653556806415604</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.6805353393285239</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0.706989794203541</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0.733184903017314</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0.758807219587031</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0.783570565495507</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0.8074858823553041</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0.831359393573229</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0.855177463094407</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0.877703016301138</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0.898991384522594</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.921136883738177</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.941925565291008</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.962016371919715</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.981373057294166</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.0000246313436</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.01801251011248</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.0353743567351</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.05213529081987</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.06845617645047</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>1.08412802587596</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.09897175081709</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>1.11300241663398</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.1267146144388</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.13983592698001</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.15227553137039</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.16408899162179</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.17569794894959</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>1.18686868192411</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.19751799960458</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.20768710867639</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>1.21773577754747</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.22766761375596</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.23698348728676</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.24602437972371</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.25479746880861</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.26330689056371</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.27155652339455</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>1.27955000783983</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.28729076453185</v>
+      </c>
+      <c r="BQ113" t="n">
+        <v>1.29486295737824</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>1.302105028746</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>1.30902790939255</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>1.31586106565002</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>1.3224505829501</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>1.3287312221744</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>1.33471299084712</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>1.34059359630643</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>1.3462396196524</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>1.35159544918288</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>1.35672553424513</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>1.36168427853823</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>1.36651609910338</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>1.37096930981758</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>1.3750691320114</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>1.3792366241634</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>1.38307654420419</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>1.38673823591395</v>
+      </c>
+      <c r="CI113" t="n">
+        <v>1.39023412299804</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>1.39357605330181</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>1.39677533179351</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>1.3998427513059</v>
+      </c>
+      <c r="CM113" t="n">
+        <v>1.40278862121238</v>
+      </c>
+      <c r="CN113" t="n">
+        <v>1.4056227941975</v>
+      </c>
+      <c r="CO113" t="n">
+        <v>1.40838417790759</v>
+      </c>
+      <c r="CP113" t="n">
+        <v>1.41102183551486</v>
+      </c>
+      <c r="CQ113" t="n">
+        <v>1.41357494895206</v>
+      </c>
+      <c r="CR113" t="n">
+        <v>1.41607859854736</v>
+      </c>
+      <c r="CS113" t="n">
+        <v>1.41851244565689</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>1.42085884389109</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>1.42312693851772</v>
+      </c>
+      <c r="CV113" t="n">
+        <v>1.42539849754959</v>
+      </c>
+      <c r="CW113" t="n">
+        <v>1.42762946297429</v>
+      </c>
+      <c r="CX113" t="n">
+        <v>1.42980274695471</v>
+      </c>
+      <c r="CY113" t="n">
+        <v>1.43192328135325</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>1.43405580546175</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>1.43619003884</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>1.43820576707887</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>1.44010133008719</v>
+      </c>
+      <c r="DD113" t="n">
+        <v>1.44206094180283</v>
+      </c>
+      <c r="DE113" t="n">
+        <v>1.44388736189816</v>
+      </c>
+      <c r="DF113" t="n">
+        <v>1.44563805355218</v>
+      </c>
+      <c r="DG113" t="n">
+        <v>1.44730708807983</v>
+      </c>
+      <c r="DH113" t="n">
+        <v>1.44888875165481</v>
+      </c>
+      <c r="DI113" t="n">
+        <v>1.45039336003487</v>
+      </c>
+      <c r="DJ113" t="n">
+        <v>1.4517828441075</v>
+      </c>
+      <c r="DK113" t="n">
+        <v>1.45305540229254</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>1.45424675081103</v>
+      </c>
+      <c r="DM113" t="n">
+        <v>1.45532251153448</v>
+      </c>
+      <c r="DN113" t="n">
+        <v>1.45626820181631</v>
+      </c>
+      <c r="DO113" t="n">
+        <v>1.45708332534523</v>
+      </c>
+      <c r="DP113" t="n">
+        <v>1.45778869182672</v>
+      </c>
+      <c r="DQ113" t="n">
+        <v>1.45836051942624</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44190</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.24339</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.243392089018433</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.206935263836352</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.19701412424572</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.194524805434085</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.199664515233996</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.198346167684206</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.199558698055277</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.204404849959471</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.211510146269219</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.221355421226505</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.234071339594064</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.250021467071506</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.268978166775913</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.290913229030851</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.315267717436809</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.340188944655034</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.366061367952203</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.392685868499879</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.420227740082109</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.447977665880206</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.475801064146307</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.5044099603868351</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.532972171187066</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.561000485715377</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0.588385213564298</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0.616043702094036</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0.643399902964504</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0.670191998030115</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0.696715154375132</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0.723135481136167</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0.74874644198695</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0.773723035548223</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0.797716369884423</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0.821493558443526</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0.8442624158206909</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0.866994470907254</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0.887561705779138</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.908177504630328</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.928864037247482</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.948378247920912</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.967434626511804</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.985985537719226</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.00416034387729</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.02150447153139</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.03817480271079</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.05434145605216</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>1.0698252931346</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.08447614132961</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>1.09832940066437</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.11187915480681</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.12485853350364</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.13717919661874</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.14889714798365</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.16043230393798</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>1.17143556130658</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.18206629471421</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.19235393863516</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>1.20232590371516</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.21200774777258</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.22172946135175</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.23088976704135</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.23980630678608</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.24857242440389</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.25699698894237</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1.26508755957964</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.27310927866562</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>1.28087914871602</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>1.28831636484169</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>1.29542866114927</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>1.30244864746982</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>1.30921514703544</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>1.31565837965101</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>1.32178621221818</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>1.32779849500425</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>1.33355598832722</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>1.33899996977393</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>1.3441384087046</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>1.34913821701409</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>1.35383199796166</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>1.35841745984434</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>1.36247052961346</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>1.36643240188676</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>1.37029801655632</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>1.37383741794127</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>1.37719299865804</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>1.38037959295229</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>1.38344386215123</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>1.38633282545432</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>1.38909351628207</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>1.39173826441913</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>1.39430624196309</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>1.39675300273658</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>1.39911780014486</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>1.40143580541993</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>1.40369082203046</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>1.40586896618136</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>1.4079808965718</v>
+      </c>
+      <c r="CV114" t="n">
+        <v>1.41010511857726</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>1.41218021451387</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>1.41423748101918</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>1.41628180856877</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>1.41830669895804</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>1.42030313324777</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>1.42232630139557</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>1.42417627028806</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>1.42603659935935</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>1.42789387640377</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>1.42962190542404</v>
+      </c>
+      <c r="DG114" t="n">
+        <v>1.43127385092108</v>
+      </c>
+      <c r="DH114" t="n">
+        <v>1.43285956381713</v>
+      </c>
+      <c r="DI114" t="n">
+        <v>1.43435357845647</v>
+      </c>
+      <c r="DJ114" t="n">
+        <v>1.43573464643814</v>
+      </c>
+      <c r="DK114" t="n">
+        <v>1.43699985088337</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>1.43818364002952</v>
+      </c>
+      <c r="DM114" t="n">
+        <v>1.43925078096972</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>1.44018593175289</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>1.44098775210161</v>
+      </c>
+      <c r="DP114" t="n">
+        <v>1.44167565637197</v>
+      </c>
+      <c r="DQ114" t="n">
+        <v>1.44222522977137</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.24162</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.24161804454804</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.201545181235039</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.190153891959245</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.187535893076269</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.191699150281991</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.188847749355848</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.189831977115126</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.196913219004225</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.205119776767451</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.214687444273551</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.2265221111377</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.241113701958556</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.258488002442488</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.278324918109094</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.300887753446129</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.324363803861206</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.34917148116859</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.375117096238017</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.402051788265078</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.429856370778781</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.458706960636927</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.487371065101702</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.516524652576051</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.545941547040059</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0.574474940531904</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.603234116945451</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.631141671183937</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.658694896016254</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0.68521914491183</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0.711041483624283</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0.736477074187298</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0.761276459123215</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0.78495060389978</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0.808313765796369</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0.831358097964305</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0.854316140640603</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0.875274581579665</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0.896387664002018</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.917577711116575</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0.93747332761344</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.956749898288913</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.97542036684427</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0.993502007536648</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.01101052931834</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.02795311253615</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.04448475254367</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1.06021944539076</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.07547825283321</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>1.08976127609348</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.10358017071579</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.11694707126238</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.12973747109873</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.1417193005062</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.15332614014099</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>1.16456516898411</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.17532872656405</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.18541846968376</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>1.19519694761112</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.20466812986437</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>1.21393219296259</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.22252033351025</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.23075632397728</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>1.23866199881732</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.24625783250091</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1.25364177470983</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.26059569048797</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>1.26737275592053</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>1.27398079389911</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>1.28022316903646</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>1.28639172989873</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>1.29229533754152</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>1.2980767025477</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>1.30356216886626</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>1.30894867947054</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>1.31424182684545</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>1.31939203756094</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>1.32435540058616</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>1.32919777410785</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>1.33397921086898</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>1.33875486358314</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>1.343131495901</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>1.34756217393769</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>1.35203644419666</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>1.35626789029066</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>1.36044501307614</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>1.36443251618988</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>1.36836427177918</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>1.37219476008396</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>1.37592334693619</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>1.3795494262605</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>1.38307241853561</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>1.38652876692618</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>1.38984279804442</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>1.39305214348146</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>1.39618984248564</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>1.39921956330055</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>1.40207849424909</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>1.40486325540639</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>1.40756991684676</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>1.41016687612373</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>1.41260076045437</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>1.41495365080191</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>1.41722105798939</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>1.41942121258626</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>1.42137337149814</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>1.42328190597032</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>1.42513493381992</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>1.42681341967083</v>
+      </c>
+      <c r="DG115" t="n">
+        <v>1.42839420905316</v>
+      </c>
+      <c r="DH115" t="n">
+        <v>1.42982696178154</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>1.43116067549781</v>
+      </c>
+      <c r="DJ115" t="n">
+        <v>1.43239089349762</v>
+      </c>
+      <c r="DK115" t="n">
+        <v>1.43347880951984</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>1.4344721751369</v>
+      </c>
+      <c r="DM115" t="n">
+        <v>1.4353360881035</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>1.43608897097182</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>1.43670770090557</v>
+      </c>
+      <c r="DP115" t="n">
+        <v>1.43721435367205</v>
+      </c>
+      <c r="DQ115" t="n">
+        <v>1.43760448068168</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.22743</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.227432605690847</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.199778714402193</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.192478419442006</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.194270992255818</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.199777787039851</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.199789662747788</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.204841640099917</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.214562500814388</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.228545257158636</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.246678957242283</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.268629396603836</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.293901976703106</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.32184453402288</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.352079942343855</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.385485874647547</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.41844354102968</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.452748654965476</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.487823467903368</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.523896554819383</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.55965005353288</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.596097116262315</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.632459298100685</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.668752183583884</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.703871404010577</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0.737623110295437</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0.77072394315452</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0.803148925360499</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.834536470685317</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0.864578493451871</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0.893672778640709</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0.922177878972684</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0.949817232176884</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0.97606153039356</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.00184827579882</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.02720019418796</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.05240192268812</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.07536954346027</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.09841871136401</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.12163358261941</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.14275413718788</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.16343150954244</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.18285638818295</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.20200550064202</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.22014642252498</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.23795880051652</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.25519200446071</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>1.27195650361057</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.28799520980014</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>1.30294444897384</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.31735307206273</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.33125248386406</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.34453196625909</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.35696860072428</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.36902857090858</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>1.38073499249111</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.39199047493932</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.40259881210035</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>1.41295192673362</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.42306756610339</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>1.43306795301226</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.44255142437258</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.45154641441581</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.46045785946247</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.46890300332224</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>1.47717234510516</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.48517475040036</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>1.49299777713712</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>1.50047511657536</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>1.50761876490924</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>1.5145907475944</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1.52138591671357</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>1.52792930829467</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>1.53408959212539</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>1.54007874755714</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>1.54589137029182</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>1.55146275594983</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>1.55673853551488</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>1.56178268624084</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>1.56664886583322</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>1.57138050051611</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>1.57559364958879</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>1.57974206874265</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>1.5838613939216</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>1.58757786056232</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>1.59116399572645</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>1.59458929543392</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>1.59790020902628</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>1.60100185156442</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>1.60401009471703</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>1.60689953101539</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>1.60970950517633</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>1.61238797429735</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>1.61497464072873</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>1.61747771575894</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>1.61993134795813</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>1.62231537087153</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>1.62458738479467</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>1.62683102035373</v>
+      </c>
+      <c r="CW116" t="n">
+        <v>1.62905126200403</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>1.63122976684694</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>1.63332451004461</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>1.63540117747465</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>1.63745151879523</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>1.63948842555321</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>1.64141863894185</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>1.64318063208148</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>1.64502827924447</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>1.64669955188763</v>
+      </c>
+      <c r="DG116" t="n">
+        <v>1.64830570995381</v>
+      </c>
+      <c r="DH116" t="n">
+        <v>1.64982256097002</v>
+      </c>
+      <c r="DI116" t="n">
+        <v>1.65126020153404</v>
+      </c>
+      <c r="DJ116" t="n">
+        <v>1.6525825192075</v>
+      </c>
+      <c r="DK116" t="n">
+        <v>1.65378821371099</v>
+      </c>
+      <c r="DL116" t="n">
+        <v>1.65489963637474</v>
+      </c>
+      <c r="DM116" t="n">
+        <v>1.65590881904912</v>
+      </c>
+      <c r="DN116" t="n">
+        <v>1.6567986209334</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>1.65754955733558</v>
+      </c>
+      <c r="DP116" t="n">
+        <v>1.65818477410962</v>
+      </c>
+      <c r="DQ116" t="n">
+        <v>1.65869632848605</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.22642</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.22641928395817</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.197088930100925</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.189197714525836</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.191038157303506</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.194772078028586</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.193626377878708</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.196899328849524</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.204763523073758</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.215536566778985</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.229694616003144</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.247718830417048</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.269725704961825</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.295352967150869</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.323921283593505</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.355611516667654</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.38810159057829</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.42121435816777</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.454722312032394</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.489250307367953</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0.524721425675811</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0.559833205956031</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.59540485492481</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0.630704715508684</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.665824245667088</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0.699408680013735</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0.732479537893766</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0.7649298890162129</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.796323624467432</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0.826300156699097</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0.855255010013197</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0.883552173803335</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0.910923483547553</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0.936856763501859</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0.962301147953784</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>0.987300892469249</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.01241844937293</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.03584977266529</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.05762906241876</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.08040951975379</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.10188821746616</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.12208875965896</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.1417711799668</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.16079820401636</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.17945308049447</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.19718720081524</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.21454661806464</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>1.23143666443846</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.24759266970578</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>1.26264408521922</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.27714270980169</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.29111979013144</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.30446381095546</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.31695111173188</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.32904999168373</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>1.3407833655738</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.35205354273852</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.36266456930846</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>1.37300881562708</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.38310380032486</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.39317535009999</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.40240993224506</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.41145360389689</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.42020845182356</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.42877196871899</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1.4368750895362</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.44479770192563</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>1.45245318839526</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>1.4599259908658</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>1.46698108209205</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>1.47386198710464</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1.48056428905561</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>1.48701476858125</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>1.49308479846281</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>1.49898398504219</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>1.50470759192053</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>1.51019251391606</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>1.51538583982101</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>1.52035111616376</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>1.52514170056226</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>1.52984920347136</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>1.53413483445677</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>1.53803839438178</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>1.54205672799851</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>1.54580208987615</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>1.54929854770858</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>1.55267679313212</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>1.5559079603323</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>1.55903573215694</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>1.56197019149035</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>1.56482068237667</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>1.56756299879039</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>1.57023434550164</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>1.57278503583193</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>1.57525259234667</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>1.57767053081399</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>1.58001883446081</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>1.58225565739509</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>1.58446324654159</v>
+      </c>
+      <c r="CW117" t="n">
+        <v>1.5866463602612</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>1.58878684315196</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>1.59084331434019</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>1.59287990927251</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>1.59488802150181</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>1.59690051969092</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>1.59868281370684</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>1.60047877033285</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>1.60225429090393</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>1.60390754859765</v>
+      </c>
+      <c r="DG117" t="n">
+        <v>1.60543837630967</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>1.60689385967902</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>1.60825127961273</v>
+      </c>
+      <c r="DJ117" t="n">
+        <v>1.60951879543011</v>
+      </c>
+      <c r="DK117" t="n">
+        <v>1.61066395290071</v>
+      </c>
+      <c r="DL117" t="n">
+        <v>1.61168570381502</v>
+      </c>
+      <c r="DM117" t="n">
+        <v>1.61261167727451</v>
+      </c>
+      <c r="DN117" t="n">
+        <v>1.61341338636746</v>
+      </c>
+      <c r="DO117" t="n">
+        <v>1.61407323874946</v>
+      </c>
+      <c r="DP117" t="n">
+        <v>1.61461125090232</v>
+      </c>
+      <c r="DQ117" t="n">
+        <v>1.61501913783381</v>
       </c>
     </row>
   </sheetData>
@@ -39138,7 +43153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ106"/>
+  <dimension ref="A1:DQ117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39148,364 +43163,364 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BX1" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BY1" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DG1" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DH1" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>357</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -77831,6 +81846,4021 @@
       </c>
       <c r="DQ106" t="n">
         <v>1.33903766719126</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.20588000000004</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.225511955636999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.192812905228685</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.19862709388139</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.211503184406325</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.260390527097578</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.284995876746304</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.290290071491424</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.309423099060317</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.335360282093299</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.366596738777157</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.403725061107327</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.446610576167137</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.493818745509089</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.543723594310983</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.599900953859775</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.659108950444187</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.717257071360851</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.776534939929632</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.8356294992940581</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.893247881755638</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.947914311324904</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.998740618151142</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.04567180806898</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.08947029767488</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1.13007233159886</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.16864039481185</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.20561727877339</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>1.24048682697582</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.27322948625004</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.30445137397351</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.33434206416103</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.36286321603565</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.38908149271906</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.41204737646665</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.43456848155599</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.45532014222158</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.47577810406292</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.49742289937702</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.52087400847347</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.54404514857881</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.56180535653735</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.57396489777796</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.580003023912</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.58098132707135</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.58120465027043</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.58188888673495</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>1.58283625268029</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.58407068089707</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>1.58530038035729</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1.58681884794795</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.58833708712025</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.589937137288</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.59148530212547</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.59332387308832</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>1.59516669457338</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.59718361117616</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.59909563446662</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>1.60111666916875</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.60342730190237</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.60549193984382</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.60705734725335</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.60812748800414</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.60858946489616</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.60837783135471</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>1.6075300222397</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.60622179340037</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>1.60424139208595</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>1.60162769871708</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>1.59835204834502</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>1.59469077624342</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>1.59025260300337</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>1.58519962430748</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>1.57952702260866</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>1.57346390900158</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>1.56658671272095</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>1.55909482208691</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>1.55101405353113</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>1.54246322714974</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>1.53307984567825</v>
+      </c>
+      <c r="CD107" t="n">
+        <v>1.52306038669116</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>1.51385089868794</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>1.50527190533309</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>1.49672567603935</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>1.48886787271958</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>1.48170171270942</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>1.47495693244797</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>1.46873629427615</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>1.46303923671022</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>1.4577988419731</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>1.45319715575348</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>1.44905442077711</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>1.44539359270755</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>1.44223557889145</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>1.43971370882511</v>
+      </c>
+      <c r="CS107" t="n">
+        <v>1.4376322137409</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>1.43608098605668</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>1.43498529457588</v>
+      </c>
+      <c r="CV107" t="n">
+        <v>1.43457694775313</v>
+      </c>
+      <c r="CW107" t="n">
+        <v>1.43459920224642</v>
+      </c>
+      <c r="CX107" t="n">
+        <v>1.43499993236993</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>1.43473060290396</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>1.43390625649608</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>1.43235187676103</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>1.42987961572422</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>1.42686170735299</v>
+      </c>
+      <c r="DD107" t="n">
+        <v>1.42326561388394</v>
+      </c>
+      <c r="DE107" t="n">
+        <v>1.41865924210834</v>
+      </c>
+      <c r="DF107" t="n">
+        <v>1.41342555804577</v>
+      </c>
+      <c r="DG107" t="n">
+        <v>1.40760949385485</v>
+      </c>
+      <c r="DH107" t="n">
+        <v>1.40100636093194</v>
+      </c>
+      <c r="DI107" t="n">
+        <v>1.39369932208847</v>
+      </c>
+      <c r="DJ107" t="n">
+        <v>1.38558890884833</v>
+      </c>
+      <c r="DK107" t="n">
+        <v>1.37682447455988</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>1.36751052617399</v>
+      </c>
+      <c r="DM107" t="n">
+        <v>1.35724301518951</v>
+      </c>
+      <c r="DN107" t="n">
+        <v>1.34624867804917</v>
+      </c>
+      <c r="DO107" t="n">
+        <v>1.33465231010538</v>
+      </c>
+      <c r="DP107" t="n">
+        <v>1.32249714150562</v>
+      </c>
+      <c r="DQ107" t="n">
+        <v>1.30934640179738</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.222000000000012</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.247411110755691</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.208006475003515</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.217035953644389</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.236546719009803</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.301121665462523</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.320910295296109</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.320024966479243</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.346231742847024</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.37963708215247</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.415741747174403</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.45517137650206</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.498621837394147</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.5468793133418079</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.598871198345998</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.6588811262193101</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.722073460793434</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.78484219723709</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.846038428798056</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.905618953316447</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.963193302078189</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.01716276596724</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1.06719916328941</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.1132367082328</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.15612785480295</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1.19620678307315</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.23473686810834</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.27214893287102</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>1.30777223310893</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.34091311104676</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.37203516165931</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.40130638485512</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.4290622691333</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.45478002295567</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.47788894122131</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.50123496514755</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.52275787505394</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.5409761471199</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.55596524175574</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.56826000193692</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.57791441769064</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.58786525446999</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.59901515719492</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.61114857873372</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.62341793497106</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.63216857175836</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.63670816403294</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1.6368160324514</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.63333569509535</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>1.62961277328651</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.62675902630006</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.62440452617962</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.62271614107589</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.62159398370675</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.62133879326504</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>1.6216269946028</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.62271376986719</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.6241699562034</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>1.62640315974748</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.62944446888047</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1.63278932738176</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.63560163106205</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.63787656991681</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1.63939525065085</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.64023062594414</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>1.64030930331984</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.63985144634094</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>1.63863689342253</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>1.63671438784927</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>1.63403258219917</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>1.63089346892736</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>1.62689860721436</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>1.62220540648319</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>1.61680048496463</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>1.61093368572694</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>1.60416840154017</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>1.59670489953071</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>1.58856692986387</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>1.57988343273278</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>1.57030026734936</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>1.56007963450096</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>1.55042073925857</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>1.54170719058249</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>1.53295660442827</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>1.52501590030881</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>1.5175603914428</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>1.51078474734005</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>1.50449423871684</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>1.49875373933621</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>1.49350033366824</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>1.48892267417027</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>1.48483206709407</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>1.48125553282402</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>1.47820917569064</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>1.47583598050093</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>1.47393338370491</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>1.47259281949666</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>1.47173082224119</v>
+      </c>
+      <c r="CV108" t="n">
+        <v>1.47159596387078</v>
+      </c>
+      <c r="CW108" t="n">
+        <v>1.47192314571597</v>
+      </c>
+      <c r="CX108" t="n">
+        <v>1.47268817423075</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>1.47265550781084</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>1.47211970404462</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>1.47079009720292</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>1.46856557001719</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>1.46563523836614</v>
+      </c>
+      <c r="DD108" t="n">
+        <v>1.46222221746064</v>
+      </c>
+      <c r="DE108" t="n">
+        <v>1.45771559519408</v>
+      </c>
+      <c r="DF108" t="n">
+        <v>1.45260986060939</v>
+      </c>
+      <c r="DG108" t="n">
+        <v>1.44670292732458</v>
+      </c>
+      <c r="DH108" t="n">
+        <v>1.44016494484349</v>
+      </c>
+      <c r="DI108" t="n">
+        <v>1.43282583443661</v>
+      </c>
+      <c r="DJ108" t="n">
+        <v>1.42464937889624</v>
+      </c>
+      <c r="DK108" t="n">
+        <v>1.41578256644261</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>1.40634240665818</v>
+      </c>
+      <c r="DM108" t="n">
+        <v>1.39590856560399</v>
+      </c>
+      <c r="DN108" t="n">
+        <v>1.38471410844908</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>1.37288370340752</v>
+      </c>
+      <c r="DP108" t="n">
+        <v>1.36047024012784</v>
+      </c>
+      <c r="DQ108" t="n">
+        <v>1.34701913741756</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.204880000000016</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.252225170577391</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.195631975207705</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.207665565826887</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.231911376885665</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.278876174703215</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.297160594447201</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.308530692019007</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.331782945160483</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.358926492546486</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.390408272668751</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.426213951501674</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.466693442152321</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.512835294447089</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.562990766325424</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.621305492454553</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.681507141170845</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.739668101104311</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.794021878933679</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.843385056319365</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.888269863432084</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.931326008820711</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.972168126198067</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.01015079727694</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.0470474759459</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1.08257633923883</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.11778544745861</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.15310419211168</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1.18766184673567</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.21975341076075</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.2495494461418</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.27722639845682</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.30298836581303</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.32718719711811</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.34870944096565</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.37052847626841</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.390554759354</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.40692074780263</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.41952301168224</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.42875926717385</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.4351901753487</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.44351969196828</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.45488961176177</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.46905299894598</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.48444574745657</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.49565879659566</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.50125363261798</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>1.50104151776552</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.49609941410191</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>1.49088275874899</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.48668830587884</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.48319592632606</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.48054914630205</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.47867742684204</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.47783922255717</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>1.47774560603793</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.47858761056965</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.4801843128208</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>1.48253211874464</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.48595548516545</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.4898743326853</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.49335075714334</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.49618117561599</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.49830404274225</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.49974153747228</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>1.50049743347251</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.50063402612787</v>
+      </c>
+      <c r="BQ109" t="n">
+        <v>1.50007438459128</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>1.49882180211458</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>1.49682699650853</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>1.49434928310057</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>1.49105523985136</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>1.48707326143114</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>1.48239540926276</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>1.47723114626281</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>1.47120271465007</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>1.46440158758016</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>1.45712449029061</v>
+      </c>
+      <c r="CB109" t="n">
+        <v>1.44919455737804</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>1.44039250507227</v>
+      </c>
+      <c r="CD109" t="n">
+        <v>1.43096499379972</v>
+      </c>
+      <c r="CE109" t="n">
+        <v>1.42204989647188</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>1.41379689950422</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>1.40545861110161</v>
+      </c>
+      <c r="CH109" t="n">
+        <v>1.39795398863702</v>
+      </c>
+      <c r="CI109" t="n">
+        <v>1.3908050571246</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>1.38402634706107</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>1.37776519889114</v>
+      </c>
+      <c r="CL109" t="n">
+        <v>1.3720070383902</v>
+      </c>
+      <c r="CM109" t="n">
+        <v>1.36656921399488</v>
+      </c>
+      <c r="CN109" t="n">
+        <v>1.36163027833655</v>
+      </c>
+      <c r="CO109" t="n">
+        <v>1.35718175528289</v>
+      </c>
+      <c r="CP109" t="n">
+        <v>1.35308059029745</v>
+      </c>
+      <c r="CQ109" t="n">
+        <v>1.3494164445242</v>
+      </c>
+      <c r="CR109" t="n">
+        <v>1.34629630478407</v>
+      </c>
+      <c r="CS109" t="n">
+        <v>1.34355030598495</v>
+      </c>
+      <c r="CT109" t="n">
+        <v>1.34123758446744</v>
+      </c>
+      <c r="CU109" t="n">
+        <v>1.33932718843648</v>
+      </c>
+      <c r="CV109" t="n">
+        <v>1.33801059761839</v>
+      </c>
+      <c r="CW109" t="n">
+        <v>1.3370424342649</v>
+      </c>
+      <c r="CX109" t="n">
+        <v>1.33639011460524</v>
+      </c>
+      <c r="CY109" t="n">
+        <v>1.33520508291758</v>
+      </c>
+      <c r="CZ109" t="n">
+        <v>1.33358909812238</v>
+      </c>
+      <c r="DA109" t="n">
+        <v>1.33131889828407</v>
+      </c>
+      <c r="DB109" t="n">
+        <v>1.32834200246902</v>
+      </c>
+      <c r="DC109" t="n">
+        <v>1.32488520631691</v>
+      </c>
+      <c r="DD109" t="n">
+        <v>1.32098620712706</v>
+      </c>
+      <c r="DE109" t="n">
+        <v>1.31616396858414</v>
+      </c>
+      <c r="DF109" t="n">
+        <v>1.31100772600732</v>
+      </c>
+      <c r="DG109" t="n">
+        <v>1.30521293748881</v>
+      </c>
+      <c r="DH109" t="n">
+        <v>1.29876036125218</v>
+      </c>
+      <c r="DI109" t="n">
+        <v>1.291870069201</v>
+      </c>
+      <c r="DJ109" t="n">
+        <v>1.28423585770533</v>
+      </c>
+      <c r="DK109" t="n">
+        <v>1.27607720168302</v>
+      </c>
+      <c r="DL109" t="n">
+        <v>1.26747300515773</v>
+      </c>
+      <c r="DM109" t="n">
+        <v>1.25806660308483</v>
+      </c>
+      <c r="DN109" t="n">
+        <v>1.24806306090734</v>
+      </c>
+      <c r="DO109" t="n">
+        <v>1.23757789169026</v>
+      </c>
+      <c r="DP109" t="n">
+        <v>1.22663929993565</v>
+      </c>
+      <c r="DQ109" t="n">
+        <v>1.21481839337262</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.225380000000008</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.235060763901451</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.198373016180685</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.207685817813738</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.235432962818116</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.276816068613121</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.297155268516374</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.311676028477465</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.329758989473206</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.352923643223899</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.381699588544741</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.415668028574058</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.455062593599023</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.502124168741882</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.556810180324144</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.617886557630514</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.683046071868473</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.746589473139209</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.805149853712977</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.859364864725353</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.908458445247261</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.9553728592651159</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.999332151714144</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.04081489978304</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.07930408282497</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1.11604313309096</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.15124798646328</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.18433973573411</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>1.21617955326784</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.25034009403965</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.28761878195259</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.32760731619047</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.36804140262434</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.40147303025773</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.42609402698607</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.4406407624839</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.44742755756982</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.45464391792661</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.46435399764061</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.47629706758694</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.49009164009469</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.5051227921054</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.52075197419714</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.53714904522153</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.55311745101005</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.5656039879752</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.57339679901314</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>1.57640989037431</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.57553944459909</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>1.57404313730047</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.57252617070422</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.57104849951662</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.56965082614251</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.56841254320897</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.56715695271913</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1.56593945659937</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.56479909207619</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.56381891501801</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>1.56291084296266</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.56183814111399</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>1.56095213166409</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.55993124776684</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.55868615929209</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.55720334786695</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.55558469710267</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>1.55377604257113</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.55174772805627</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>1.54947773031229</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>1.54703766437523</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>1.54448800014805</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>1.54164452503294</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1.53858536477775</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>1.53536484737717</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>1.53202890541101</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>1.52839153961106</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>1.52454341962675</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>1.52055208386121</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>1.5163731702199</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>1.51196045414219</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>1.507146388618</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>1.50246057262863</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>1.4979259003487</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>1.49313368943788</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>1.48852854653153</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>1.48410601258492</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>1.4797181143037</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>1.47540163940323</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>1.47110968395221</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>1.46699447543075</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>1.46291832929197</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>1.4589125892245</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>1.45493372226683</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>1.45108391706008</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>1.44732039872985</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>1.44358604494721</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>1.43992189165791</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>1.43637499045388</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>1.43297203912705</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>1.42955262362335</v>
+      </c>
+      <c r="CW110" t="n">
+        <v>1.42620223372273</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>1.42287711165245</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>1.41924350832496</v>
+      </c>
+      <c r="CZ110" t="n">
+        <v>1.41505050475616</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>1.41020181486966</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>1.40515260449283</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>1.39976031298158</v>
+      </c>
+      <c r="DD110" t="n">
+        <v>1.3935432106009</v>
+      </c>
+      <c r="DE110" t="n">
+        <v>1.38697846471975</v>
+      </c>
+      <c r="DF110" t="n">
+        <v>1.38008852900803</v>
+      </c>
+      <c r="DG110" t="n">
+        <v>1.37264296198746</v>
+      </c>
+      <c r="DH110" t="n">
+        <v>1.36474572327171</v>
+      </c>
+      <c r="DI110" t="n">
+        <v>1.35631096053932</v>
+      </c>
+      <c r="DJ110" t="n">
+        <v>1.34750614747885</v>
+      </c>
+      <c r="DK110" t="n">
+        <v>1.33826293263562</v>
+      </c>
+      <c r="DL110" t="n">
+        <v>1.32839526959547</v>
+      </c>
+      <c r="DM110" t="n">
+        <v>1.31808608079512</v>
+      </c>
+      <c r="DN110" t="n">
+        <v>1.30742759379174</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>1.29631611307832</v>
+      </c>
+      <c r="DP110" t="n">
+        <v>1.28456278864756</v>
+      </c>
+      <c r="DQ110" t="n">
+        <v>1.27237998629887</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.225879999999989</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.224222304262623</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.190306614337079</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.202101561947052</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.245660304492556</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.238410735828353</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.237906803167535</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.259397266499474</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.294735650293543</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.340568500129201</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.396368962520541</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.461316523212759</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.533365740325568</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.606342565637906</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.677444230081454</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.744462574602788</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.810160716327886</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.876399581624332</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.9429016233786029</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.00965168598402</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1.0764553121608</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.13943501340788</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1.19691566309651</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.24952105229659</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.29668152654379</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>1.34026023487921</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.38054731469931</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.41686982495626</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1.44986929618771</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.48207160803047</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.51394417712185</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.54513649169105</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.57542219007558</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.60501505070703</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.6341614405852</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.66186622800798</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.6874330596277</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.70813605045165</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.72394361674496</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.73395213392531</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.74013665783228</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.74833525929288</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.75982993539836</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.77456364664217</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.79126229675987</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.80377760962622</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.81040320119786</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>1.81106576928017</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.80699800596882</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>1.80260834194849</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>1.79873446138616</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.79549130861776</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.79292587128588</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.79112617028841</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.78987207595004</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>1.78923473793152</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.7892463528824</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.79003750378633</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>1.79151178799614</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.79342230405518</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.79588010930259</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.79800700955009</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.79948554313122</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.80032522660663</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.80062461901455</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>1.80037401894084</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.7994877981122</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>1.79795635494236</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>1.79585343502913</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>1.79328205330782</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>1.78999213398459</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1.78607710892876</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>1.7816169485509</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>1.7766731292354</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>1.77098620491551</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>1.76468834142069</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>1.75787498379034</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>1.75047028961759</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>1.74237204656989</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>1.73349825264743</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>1.72447737770861</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>1.7160395526208</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>1.70757430554617</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>1.69987970371347</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>1.69268415633417</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>1.685994892764</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>1.67980537144357</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>1.67410816441103</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>1.66891963898327</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>1.66424732441906</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>1.660064748183</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>1.65632651209904</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>1.6531502067407</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>1.65050047663869</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>1.64830903815627</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>1.64660000238473</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>1.64540822384538</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>1.6448243064728</v>
+      </c>
+      <c r="CV111" t="n">
+        <v>1.64466704623093</v>
+      </c>
+      <c r="CW111" t="n">
+        <v>1.6449811930852</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>1.64556964347185</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>1.64564911099496</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>1.64484830607213</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>1.64298595501171</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>1.64040323709701</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>1.63714124601322</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>1.63269232338249</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>1.62754361461726</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>1.62155334280786</v>
+      </c>
+      <c r="DG111" t="n">
+        <v>1.61470669596866</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>1.60700783288639</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>1.59837323585888</v>
+      </c>
+      <c r="DJ111" t="n">
+        <v>1.58898643329399</v>
+      </c>
+      <c r="DK111" t="n">
+        <v>1.57880098285713</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>1.56756871455828</v>
+      </c>
+      <c r="DM111" t="n">
+        <v>1.55550148703095</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>1.54272013535532</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>1.52911551002051</v>
+      </c>
+      <c r="DP111" t="n">
+        <v>1.51443088310276</v>
+      </c>
+      <c r="DQ111" t="n">
+        <v>1.49893280519124</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.218182740309292</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.170300405915519</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.164217904904483</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.168587360555738</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.212843794643636</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.186957709520143</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.19932115685657</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.225786936600545</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.251653164506482</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.287390957197576</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.335944851986326</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.396639996433268</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.466726220273004</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.5372972833745699</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.604895833289318</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.667449504779569</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.727979850166031</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.78984080685295</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.8531773758446139</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.917956127393157</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.983605661523296</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.04483536513702</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1.09964290859685</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.14862312081547</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.19177220025302</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1.23293842459136</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.27297494695702</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.31123010691165</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1.34767592953524</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.38232709696192</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.41500411324772</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.44534748171751</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.4733748156778</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.50009499818316</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.52591377190818</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.54994223613555</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.57204630307526</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.59164812884034</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.60932369199061</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.62408210980023</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.63669373185979</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.64791485498417</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.65774677020892</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.66620927076233</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.67326308051771</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.67804672448594</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.68023737498703</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>1.67981087354821</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.6773507459173</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>1.67491934269067</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.67280862243966</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.67109617118468</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.6698199402617</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.66907295200875</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.66866584420215</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>1.66864784648101</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1.66904738872553</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.66998540014354</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>1.67137660361048</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.6730002633047</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1.67497849241323</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.67663189305384</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.67770769929628</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1.67821447443324</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.6782353915159</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>1.67776173528162</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.67672195278717</v>
+      </c>
+      <c r="BQ112" t="n">
+        <v>1.67510476759712</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>1.67297904639767</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>1.67042928060914</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>1.66723636512965</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1.66348676725565</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>1.65925218372971</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>1.6545799573375</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>1.64924260449807</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>1.64336121985404</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>1.637018820722</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>1.63014486805363</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>1.62264524150455</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>1.61445884872739</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>1.60614146274208</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>1.59834632069853</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>1.59052250409407</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>1.58339363804283</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>1.57670863712859</v>
+      </c>
+      <c r="CI112" t="n">
+        <v>1.57047399769113</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>1.56468871906132</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>1.55934613915404</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>1.55445607603837</v>
+      </c>
+      <c r="CM112" t="n">
+        <v>1.5500252761761</v>
+      </c>
+      <c r="CN112" t="n">
+        <v>1.54603487039333</v>
+      </c>
+      <c r="CO112" t="n">
+        <v>1.5424415100329</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>1.53935104970034</v>
+      </c>
+      <c r="CQ112" t="n">
+        <v>1.53672912003939</v>
+      </c>
+      <c r="CR112" t="n">
+        <v>1.53451671570904</v>
+      </c>
+      <c r="CS112" t="n">
+        <v>1.53273815855024</v>
+      </c>
+      <c r="CT112" t="n">
+        <v>1.53142496248799</v>
+      </c>
+      <c r="CU112" t="n">
+        <v>1.53065086367699</v>
+      </c>
+      <c r="CV112" t="n">
+        <v>1.53025769707467</v>
+      </c>
+      <c r="CW112" t="n">
+        <v>1.5302885796918</v>
+      </c>
+      <c r="CX112" t="n">
+        <v>1.53056719598261</v>
+      </c>
+      <c r="CY112" t="n">
+        <v>1.53038413759168</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>1.52940600849728</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>1.52748324240107</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>1.52491492111927</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>1.52173787085115</v>
+      </c>
+      <c r="DD112" t="n">
+        <v>1.51749269648663</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>1.51262559732919</v>
+      </c>
+      <c r="DF112" t="n">
+        <v>1.50700111489994</v>
+      </c>
+      <c r="DG112" t="n">
+        <v>1.50060598204316</v>
+      </c>
+      <c r="DH112" t="n">
+        <v>1.49344910183495</v>
+      </c>
+      <c r="DI112" t="n">
+        <v>1.48545276338142</v>
+      </c>
+      <c r="DJ112" t="n">
+        <v>1.47678451396107</v>
+      </c>
+      <c r="DK112" t="n">
+        <v>1.46739511969548</v>
+      </c>
+      <c r="DL112" t="n">
+        <v>1.45706638218855</v>
+      </c>
+      <c r="DM112" t="n">
+        <v>1.4459912426383</v>
+      </c>
+      <c r="DN112" t="n">
+        <v>1.43427831030447</v>
+      </c>
+      <c r="DO112" t="n">
+        <v>1.42182239077151</v>
+      </c>
+      <c r="DP112" t="n">
+        <v>1.40839716891052</v>
+      </c>
+      <c r="DQ112" t="n">
+        <v>1.39424469914638</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.235749999999957</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.167519274738078</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.169546330657717</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.175968472791352</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.213421741672448</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.190072712705537</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.201970481753947</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.263584989019262</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.281440195690852</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.302436884474786</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.345727245892204</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.410812592624053</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.492761166352268</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.574626145921564</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.6507034850669829</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.718725226303964</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.782504339390121</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.8474538172306</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.914201116277172</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.9827068626511321</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1.05227410751116</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.11692591570909</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1.17444848374017</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.22546545333975</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.27008165084384</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1.31273520593138</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.35441497147144</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.39444606068991</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1.43276491571652</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.46924718135083</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.50366561199047</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.53564127803737</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.5652934556468</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.59410032533804</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.62261946133429</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.64987887818022</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.67534928976095</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.69695742501689</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.7149280386382</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.72824092390339</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.73812512432153</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.74712903166154</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.7557161929495</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.76389069831168</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.77141689640139</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.7766207465268</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.77896178827717</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>1.77841418090504</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.77561845142886</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>1.77283252938934</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.77036952328531</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.76831767455661</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.76672106648335</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.76568119102629</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.76498427790325</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>1.76468908333114</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.76482975074323</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.76553655006282</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>1.76670714018781</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.76810460445219</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.76988537406343</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.77134057734031</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.7722067158268</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.77249250840938</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.77228775056995</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>1.77158356250855</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.770301991314</v>
+      </c>
+      <c r="BQ113" t="n">
+        <v>1.76842914843017</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>1.7660425684829</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>1.76323579098826</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>1.75976592834122</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>1.75572839124619</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>1.75120103979109</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>1.74623944592464</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>1.74059262122724</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>1.73439106505763</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>1.72772646890216</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>1.72052466026173</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>1.71268751944994</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>1.70413643818563</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>1.6954776944644</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>1.68741578653756</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>1.67936677476564</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>1.67209427386826</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>1.66534011271912</v>
+      </c>
+      <c r="CI113" t="n">
+        <v>1.65911190108474</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>1.65340053135749</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>1.64819819507694</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>1.64352433633471</v>
+      </c>
+      <c r="CM113" t="n">
+        <v>1.63938686922008</v>
+      </c>
+      <c r="CN113" t="n">
+        <v>1.63575573570439</v>
+      </c>
+      <c r="CO113" t="n">
+        <v>1.63259151509211</v>
+      </c>
+      <c r="CP113" t="n">
+        <v>1.63000337911387</v>
+      </c>
+      <c r="CQ113" t="n">
+        <v>1.62796252390128</v>
+      </c>
+      <c r="CR113" t="n">
+        <v>1.62640301591914</v>
+      </c>
+      <c r="CS113" t="n">
+        <v>1.62534201042011</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>1.6248093656051</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>1.6249037868625</v>
+      </c>
+      <c r="CV113" t="n">
+        <v>1.62545281871014</v>
+      </c>
+      <c r="CW113" t="n">
+        <v>1.62648883805376</v>
+      </c>
+      <c r="CX113" t="n">
+        <v>1.62780398984195</v>
+      </c>
+      <c r="CY113" t="n">
+        <v>1.62860218729319</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>1.62852034256458</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>1.62736104040244</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>1.62545238198079</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>1.62283649362983</v>
+      </c>
+      <c r="DD113" t="n">
+        <v>1.6190467304223</v>
+      </c>
+      <c r="DE113" t="n">
+        <v>1.61452348665888</v>
+      </c>
+      <c r="DF113" t="n">
+        <v>1.60914629439292</v>
+      </c>
+      <c r="DG113" t="n">
+        <v>1.60290017536105</v>
+      </c>
+      <c r="DH113" t="n">
+        <v>1.59578382554832</v>
+      </c>
+      <c r="DI113" t="n">
+        <v>1.58772004039393</v>
+      </c>
+      <c r="DJ113" t="n">
+        <v>1.57888258346439</v>
+      </c>
+      <c r="DK113" t="n">
+        <v>1.56923294135708</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>1.55852777394447</v>
+      </c>
+      <c r="DM113" t="n">
+        <v>1.54696968275927</v>
+      </c>
+      <c r="DN113" t="n">
+        <v>1.53467667112901</v>
+      </c>
+      <c r="DO113" t="n">
+        <v>1.5215468024242</v>
+      </c>
+      <c r="DP113" t="n">
+        <v>1.50732734293511</v>
+      </c>
+      <c r="DQ113" t="n">
+        <v>1.49227670686871</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44190</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.240129999999983</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.168961267934666</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.17499667475194</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.18482235696189</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.217547361215065</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.189244071462002</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.203988695419179</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.235238109227217</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.265543219995834</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.304991242183093</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.3567185331652</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.420213242556037</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.492869587487466</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.565764388903443</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.637549530845286</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.7065748380707469</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.771488304327597</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.836047923789328</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.900630125899447</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.9652089006299041</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1.02737323553272</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.08665583543988</v>
+      </c>
+      <c r="X114" t="n">
+        <v>1.14219650381274</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.19333967268342</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.23977606220587</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1.28606983793336</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.33279650143757</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.37949018813241</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1.42450454815584</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.46571336579387</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.50163442788753</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.53218783169029</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.55786421008664</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.58095127986402</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.60168833468229</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.61997700497081</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.63660807012987</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.65352923949586</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.67230956886175</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.69231479558412</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.71216835538527</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.72882659836388</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.7413074221642</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.74946377966273</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.75362404384972</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.75581341595653</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.75628742344466</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>1.75507085353142</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.7525236871994</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>1.75030960684112</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.74855342437784</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.74733176749227</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.7466800980781</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.74671208499852</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.74718001058764</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>1.74824959921612</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.7498258208235</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.75206906145333</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>1.7548189512131</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.75812896144885</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.7619159175138</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.76504278487243</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.76746140409629</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.76907397392196</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.76981255383071</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1.76997362359072</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.76927560942226</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>1.76779893912031</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>1.76551586452494</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>1.76262088402404</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>1.75883370580206</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>1.75426793350052</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>1.74896460126561</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>1.74301265799274</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>1.73613666996587</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>1.72848519254774</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>1.72016027857671</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>1.71115077960534</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>1.70120344379119</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>1.6905866688593</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>1.67913053884403</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>1.66872701105788</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>1.65870171251013</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>1.64917885186741</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>1.64067327916124</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>1.63287901884698</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>1.62580686319717</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>1.61939379525761</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>1.61376811583462</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>1.60886815682913</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>1.60470512848888</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>1.60121805108657</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>1.5984712370142</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>1.59649213574403</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>1.59520133810604</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>1.59461303809754</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>1.59474827434512</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>1.59571176117923</v>
+      </c>
+      <c r="CV114" t="n">
+        <v>1.59729965263471</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>1.59963808658852</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>1.60236545231802</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>1.60449359463989</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>1.60559225795626</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>1.60571028828515</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>1.6047207385333</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>1.60300445374666</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>1.60022965277656</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>1.59624470154533</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>1.59141672577108</v>
+      </c>
+      <c r="DG114" t="n">
+        <v>1.58561827347941</v>
+      </c>
+      <c r="DH114" t="n">
+        <v>1.57875425125698</v>
+      </c>
+      <c r="DI114" t="n">
+        <v>1.57088808633459</v>
+      </c>
+      <c r="DJ114" t="n">
+        <v>1.56215737678247</v>
+      </c>
+      <c r="DK114" t="n">
+        <v>1.55248723692537</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>1.54164770642375</v>
+      </c>
+      <c r="DM114" t="n">
+        <v>1.52980631718711</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>1.51719094411824</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>1.50358559233375</v>
+      </c>
+      <c r="DP114" t="n">
+        <v>1.48877185917543</v>
+      </c>
+      <c r="DQ114" t="n">
+        <v>1.47301613416187</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.238379999999998</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.159292429770773</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.165061630410292</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.177344876181677</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.205779076486401</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.172236573625307</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.193040300896633</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.242725203688114</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.26805215375898</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.296891000281</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.339149558438448</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.394910797686445</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.461416439538346</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.529859077178283</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.59955445095164</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.669713487625785</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.738174952954132</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.807522150195181</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.877847543774252</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.94836232501061</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.01852392309025</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.08502039621352</v>
+      </c>
+      <c r="X115" t="n">
+        <v>1.14593006350207</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.20226504159363</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.25368010615743</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1.30039897451543</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.34278076257273</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.3799375253105</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1.41315572842202</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.44476157637683</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.47577990722204</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.50613981868166</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.5352280136975</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.56302249873431</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.58978845250004</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.61565133046173</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.63962941941684</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.66035415576448</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.67974932032149</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.6964821134602</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.71054760967251</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.72343534642169</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.73536333431966</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.7461205117185</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.75540358722919</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.76219448719481</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.76594657949019</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1.7666632765465</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.76476933558867</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>1.76232338156558</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.75962168950174</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.75663101528234</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.75336000857369</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.75000909855769</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.74639239187915</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>1.74248232897986</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.7383034087878</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.73404746391352</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>1.72951567320033</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.72471464286424</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>1.71959133142535</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.71490149723561</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.71055033733214</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>1.70650390111317</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.70277837853421</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1.69931559485749</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.69629003857968</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>1.69352720531152</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>1.69100534492301</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>1.6889641783568</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>1.68714597340498</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>1.68567016079139</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>1.68443591651961</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>1.68364521622867</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>1.68316788807687</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>1.682975180367</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>1.68306921414914</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>1.68352381811153</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>1.68434405289841</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>1.68554929683239</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>1.68676937086678</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>1.6878138825803</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>1.68866954491987</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>1.68896127653358</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>1.68896252098369</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>1.68856458020867</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>1.68789392748548</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>1.6868240924497</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>1.68536698393343</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>1.68358515368657</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>1.68147247210344</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>1.67897457644799</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>1.67606437439808</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>1.67285067307527</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>1.66929771681447</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>1.66532277952802</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>1.66095624803626</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>1.65637330305301</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>1.65137996863262</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>1.64595759651061</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>1.64015199375651</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>1.63408795890932</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>1.62753959207963</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>1.62048970818531</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>1.61286932827297</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>1.60532545984658</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>1.59708346438241</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>1.58818983203264</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>1.57913744557335</v>
+      </c>
+      <c r="DG115" t="n">
+        <v>1.56958420347827</v>
+      </c>
+      <c r="DH115" t="n">
+        <v>1.55979097527149</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>1.54949695259513</v>
+      </c>
+      <c r="DJ115" t="n">
+        <v>1.53872418655539</v>
+      </c>
+      <c r="DK115" t="n">
+        <v>1.5276674949153</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>1.51600306848177</v>
+      </c>
+      <c r="DM115" t="n">
+        <v>1.50404944652228</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>1.49162118241488</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>1.47894262128341</v>
+      </c>
+      <c r="DP115" t="n">
+        <v>1.46570670803448</v>
+      </c>
+      <c r="DQ115" t="n">
+        <v>1.45194680272401</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.224379999999957</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.170103235162676</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.175715379745893</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.19690566930859</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.219128283756031</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.197160497089653</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.231675815911808</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.278210746184031</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.337418785279198</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.404670805690514</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.479622813332465</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.562030892812463</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.649594403531762</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.736600878978968</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.823994551521208</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.91021634178037</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.991380526818342</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.07297807946657</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.15419887353024</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.23499578963039</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.31142623730463</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.3817129262426</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1.44352781849329</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.49668136357652</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.5408898434365</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1.581656967575</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.62003978736924</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.65572225813137</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1.68858703776369</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.71985732305724</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.7501631218919</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.77940343066026</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.80715358610666</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.83418422257378</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.86090261669124</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.88747791606338</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.91225921503289</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.93170771396983</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.94710987083944</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.95672645218073</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.96217692427917</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.96879895807838</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.97781321316007</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.98931910532536</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.00156508858964</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>2.01038769203658</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>2.01437159808297</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.01333191582581</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2.00817500702089</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>2.00289764154931</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.99818674417449</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.99402817858174</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.99042975336816</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.98763455382119</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.9854334677223</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>1.9837992149895</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.98269846679011</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.98238577526901</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>1.9826948832299</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.98370826828287</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>1.98495486998703</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.98589477087588</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.98640487997658</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.98633081550246</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.98568451761712</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>1.98455668065949</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.98294210146604</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>1.98072381604938</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>1.97792184328307</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>1.97474342684256</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>1.97099583556258</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1.96663347275412</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>1.96167970666838</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>1.95638572499353</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>1.95049904875954</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>1.94398700182237</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>1.93692144383288</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>1.92941465943562</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>1.92138297641658</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>1.91271905714634</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>1.90347332948009</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>1.89512458708509</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>1.88700358840315</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>1.87900941166801</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>1.87194046178791</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>1.86529379565482</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>1.85915764594369</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>1.85344312196941</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>1.84832111483974</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>1.84365259004354</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>1.83950436193947</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>1.83578966528893</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>1.83258162356565</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>1.8298963947326</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>1.82774171035367</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>1.82603210998214</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>1.82474499542105</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>1.82409473644563</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>1.82393386865172</v>
+      </c>
+      <c r="CW116" t="n">
+        <v>1.82422926078161</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>1.82471160940141</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>1.82473931327279</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>1.823945715889</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>1.82233749505855</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>1.81969525128367</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>1.81630739221525</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>1.81244317808438</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>1.80721956100717</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>1.80149630027</v>
+      </c>
+      <c r="DG116" t="n">
+        <v>1.79491270840799</v>
+      </c>
+      <c r="DH116" t="n">
+        <v>1.7875133752955</v>
+      </c>
+      <c r="DI116" t="n">
+        <v>1.77919729013952</v>
+      </c>
+      <c r="DJ116" t="n">
+        <v>1.77016921281057</v>
+      </c>
+      <c r="DK116" t="n">
+        <v>1.76041497370571</v>
+      </c>
+      <c r="DL116" t="n">
+        <v>1.74973081658174</v>
+      </c>
+      <c r="DM116" t="n">
+        <v>1.73811390649733</v>
+      </c>
+      <c r="DN116" t="n">
+        <v>1.72572159899342</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>1.71270995154554</v>
+      </c>
+      <c r="DP116" t="n">
+        <v>1.6987324284198</v>
+      </c>
+      <c r="DQ116" t="n">
+        <v>1.68380678838579</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.223379999999995</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.165813149564083</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.171331026186818</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.19385570069727</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.207093241287737</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.185367348599895</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.213418422951909</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.255831539447927</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.298879966663446</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.352535480653089</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.42058527784112</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.502989992174086</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.595903120598712</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.687309886174057</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.776143248870143</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.861271812267574</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.941622085444522</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1.02088774831188</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.09976089108924</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.17908178678245</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.25714081116204</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.32855943772189</v>
+      </c>
+      <c r="X117" t="n">
+        <v>1.39311671048759</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.44966559536205</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.49902405563616</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1.54304350465874</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.58283778530458</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.61803941631001</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1.64885186298646</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.67778570857412</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.70576775182529</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.73270152456453</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.75830974689077</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.78377282799646</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.80959486967163</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.83615512207459</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.86155412145656</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.88280109059211</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.89924358857768</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.91165562646063</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.92021922629104</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.92951872572097</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.94062834994714</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.95332678558067</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.96660363991104</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.97574501534753</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.97988334290178</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>1.97870312954344</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.97316113701564</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>1.96742430608782</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.96222298740648</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.95754708911887</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.95341518360603</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.95005783443965</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.94726248738967</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>1.94500658648611</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.94326941220613</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.94229182419765</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>1.94190276393618</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.94223300727795</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.94263768086903</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.94294158929335</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.94282071396973</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.94216710309526</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.94092943904458</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1.939376996308</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.93732356733566</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>1.93474817409595</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>1.93158975715093</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>1.9281257528943</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>1.92413948256948</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1.91959037170504</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>1.9145069208343</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>1.90912590051823</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>1.90320131107408</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>1.8967043830976</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>1.88970678155948</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>1.88231503234343</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>1.87444677161806</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>1.86599872204069</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>1.85691826064027</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>1.84853243315529</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>1.84097280459481</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>1.83326584478078</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>1.82620208176809</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>1.81978587048357</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>1.81377293744416</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>1.80822077615535</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>1.80305027879131</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>1.79851326943402</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>1.79440043538312</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>1.79073898076849</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>1.78748920430601</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>1.78477574812793</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>1.78256837966062</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>1.78078583514002</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>1.77940917532418</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>1.77864137664383</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>1.7783397223245</v>
+      </c>
+      <c r="CW117" t="n">
+        <v>1.778473594746</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>1.77877665067658</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>1.77858638208082</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>1.7775369240609</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>1.7756595327506</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>1.77257553688088</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>1.76909388375603</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>1.76463887547333</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>1.7590596703003</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>1.75274381507176</v>
+      </c>
+      <c r="DG117" t="n">
+        <v>1.74573291648033</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>1.73779229308335</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>1.7289998321263</v>
+      </c>
+      <c r="DJ117" t="n">
+        <v>1.71926024219424</v>
+      </c>
+      <c r="DK117" t="n">
+        <v>1.70876051037864</v>
+      </c>
+      <c r="DL117" t="n">
+        <v>1.69751324385562</v>
+      </c>
+      <c r="DM117" t="n">
+        <v>1.68517609639087</v>
+      </c>
+      <c r="DN117" t="n">
+        <v>1.67204108506178</v>
+      </c>
+      <c r="DO117" t="n">
+        <v>1.65824825420813</v>
+      </c>
+      <c r="DP117" t="n">
+        <v>1.64344551184068</v>
+      </c>
+      <c r="DQ117" t="n">
+        <v>1.62765685793666</v>
       </c>
     </row>
   </sheetData>
